--- a/docs/assets/disciplinas/LOQ4047.xlsx
+++ b/docs/assets/disciplinas/LOQ4047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Conduzir os alunos no desenvolvimento de um projeto de conclusão de curso sobre tema específico relacionado à engenharia química.</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>198273 - Domingos Savio Giordani</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1) Metodologia Cientifica. 2) Projeto de Monografia. 3) Métodos de Pesquisa. 4) Normas de um Projeto de Pesquisa. 5) Pesquisa em Bases de Dados Bibliográficos. 6) Organização de Referências Bibliográficas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 – Metodologia Cientifica: Concepção e definição. 2 – Monografia Cientifica: O que é um projeto de pesquisa. As etapas de um projeto de pesquisa. 3 – Métodos de Pesquisa utilizados na Engenharia Química. 4- Pontos essenciais de um projeto de TCC. 5 – Pontos essenciais de uma monografia de TCC. 6 – Normas para elaboração de do texto e das Referências Bibliográficas. 7 – Mecanismos de busca em Bases de Dados tais como Web of Science, Scopus, Science Direct, etc. 8 – O uso do aplicativo Mendeley como forma de organizar e formatar as referências bibliográficas na monografia.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Preparo e apresentação do Projeto de Trabalho de Conclusão de Curso (TCC 1) a ser desenvolvido na disciplina de Trabalho de Conclusão de Curso II, conforme norma do Departamento de Engenharia Química.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>O aluno deve entregar, através do sistema online disponibilizado, um arquivo em formato pdf contendo o seu projeto de TCC impreterivelmente até a data estabelecida pelo professor na primeira semana de aula. O aluno que não cumprir este prazo fica reprovado na disciplina, por obter nota zero na primeira avaliação. O trabalho é submetido a dois avaliadores, a nota da primeira avaliação será a média das duas avaliações, sendo igual ou superior a 5, o aluno está aprovado, sendo inferior a 5 e igual ou superior a 3, o aluno está de recuperação.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>O aluno deverá reapresentar o seu projeto até a data estabelecida pelo professor. O projeto será reavaliado e obtendo nota igual ou superior a 5, está aprovado.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>NASCIMENTO, L. P. Elaboração de Projetos de Pesquisa, Cengage Learning, 2012.SANTOS, C. R. Trabalho de Conclusão de Curso – Guia de elaboração passo a passo, Cengage Learning, 2010.BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005. GIL, A.C. Como elaborar projetos de pesquisa. 5ed. Atlas, São Paulo, 2010.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4047.xlsx
+++ b/docs/assets/disciplinas/LOQ4047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Conduzir os alunos no desenvolvimento de um projeto de conclusão de curso sobre tema específico relacionado à engenharia química.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Lead students to develop a course completion project on a specific topic related to chemical engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Lead students to develop a course completion project on a specific topic related to chemical engineering.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1) Metodologia Cientifica. 2) Projeto de Monografia. 3) Métodos de Pesquisa. 4) Normas de um Projeto de Pesquisa. 5) Pesquisa em Bases de Dados Bibliográficos. 6) Organização de Referências Bibliográficas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 – Metodologia Cientifica: Concepção e definição. 2 – Monografia Cientifica: O que é um projeto de pesquisa. As etapas de um projeto de pesquisa. 3 – Métodos de Pesquisa utilizados na Engenharia Química. 4- Pontos essenciais de um projeto de TCC. 5 – Pontos essenciais de uma monografia de TCC. 6 – Normas para elaboração de do texto e das Referências Bibliográficas. 7 – Mecanismos de busca em Bases de Dados tais como Web of Science, Scopus, Science Direct, etc. 8 – O uso do aplicativo Mendeley como forma de organizar e formatar as referências bibliográficas na monografia.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Preparo e apresentação do Projeto de Trabalho de Conclusão de Curso (TCC 1) a ser desenvolvido na disciplina de Trabalho de Conclusão de Curso II, conforme norma do Departamento de Engenharia Química.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Preparo e apresentação do Projeto de Trabalho de Conclusão de Curso (TCC 1) a ser desenvolvido na disciplina de Trabalho de Conclusão de Curso II, conforme norma do Departamento de Engenharia Química.</t>
+    <t>O aluno deve entregar, através do sistema online disponibilizado, um arquivo em formato pdf contendo o seu projeto de TCC impreterivelmente até a data estabelecida pelo professor na primeira semana de aula. O aluno que não cumprir este prazo fica reprovado na disciplina, por obter nota zero na primeira avaliação. O trabalho é submetido a dois avaliadores, a nota da primeira avaliação será a média das duas avaliações, sendo igual ou superior a 5, o aluno está aprovado, sendo inferior a 5 e igual ou superior a 3, o aluno está de recuperação.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>O aluno deve entregar, através do sistema online disponibilizado, um arquivo em formato pdf contendo o seu projeto de TCC impreterivelmente até a data estabelecida pelo professor na primeira semana de aula. O aluno que não cumprir este prazo fica reprovado na disciplina, por obter nota zero na primeira avaliação. O trabalho é submetido a dois avaliadores, a nota da primeira avaliação será a média das duas avaliações, sendo igual ou superior a 5, o aluno está aprovado, sendo inferior a 5 e igual ou superior a 3, o aluno está de recuperação.</t>
+    <t>O aluno deverá reapresentar o seu projeto até a data estabelecida pelo professor. O projeto será reavaliado e obtendo nota igual ou superior a 5, está aprovado.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>O aluno deverá reapresentar o seu projeto até a data estabelecida pelo professor. O projeto será reavaliado e obtendo nota igual ou superior a 5, está aprovado.</t>
+    <t>NASCIMENTO, L. P. Elaboração de Projetos de Pesquisa, Cengage Learning, 2012.SANTOS, C. R. Trabalho de Conclusão de Curso – Guia de elaboração passo a passo, Cengage Learning, 2010.BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005. GIL, A.C. Como elaborar projetos de pesquisa. 5ed. Atlas, São Paulo, 2010.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
